--- a/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 41,78</t>
+          <t>30,31; 41,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 38,35</t>
+          <t>26,63; 37,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,9; 49,52</t>
+          <t>37,99; 50,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,61; 39,97</t>
+          <t>28,38; 40,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 47,17</t>
+          <t>36,02; 48,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,21; 54,79</t>
+          <t>45,37; 55,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,94; 39,18</t>
+          <t>30,92; 39,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,52; 40,62</t>
+          <t>32,37; 40,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,84</t>
+          <t>43,21; 50,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 37,08</t>
+          <t>28,48; 37,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 25,27</t>
+          <t>18,09; 25,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 34,02</t>
+          <t>25,23; 33,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 43,86</t>
+          <t>33,17; 43,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,55; 47,68</t>
+          <t>39,06; 47,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 39,42</t>
+          <t>30,71; 39,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 41,65</t>
+          <t>32,47; 41,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,94; 56,66</t>
+          <t>49,17; 56,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,15; 41,11</t>
+          <t>35,12; 41,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 31,54</t>
+          <t>25,81; 31,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,48; 36,48</t>
+          <t>30,47; 36,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 49,39</t>
+          <t>42,6; 49,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,89; 47,27</t>
+          <t>36,19; 47,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 23,09</t>
+          <t>14,74; 23,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 37,18</t>
+          <t>26,89; 37,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,96; 42,64</t>
+          <t>31,47; 42,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,08; 45,25</t>
+          <t>34,86; 45,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 23,87</t>
+          <t>15,36; 23,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,83; 42,13</t>
+          <t>32,04; 42,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,37; 44,14</t>
+          <t>35,35; 44,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,22; 44,88</t>
+          <t>37,36; 45,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,32</t>
+          <t>16,22; 22,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,28</t>
+          <t>30,86; 38,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,13; 41,74</t>
+          <t>35,15; 41,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 43,78</t>
+          <t>33,57; 44,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 29,9</t>
+          <t>22,87; 29,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,12</t>
+          <t>17,21; 26,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 40,2</t>
+          <t>27,68; 41,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,77; 46,92</t>
+          <t>37,07; 46,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,19; 38,26</t>
+          <t>31,04; 38,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 39,8</t>
+          <t>29,67; 40,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,26; 45,07</t>
+          <t>33,81; 45,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 43,87</t>
+          <t>36,68; 43,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,05; 33,02</t>
+          <t>28,12; 33,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,92</t>
+          <t>25,34; 31,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,48; 41,5</t>
+          <t>32,42; 40,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,12; 56,94</t>
+          <t>42,31; 56,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,02; 35,08</t>
+          <t>21,77; 34,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,78; 41,68</t>
+          <t>28,49; 41,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,18</t>
+          <t>6,87; 13,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,89; 75,21</t>
+          <t>61,12; 74,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,62; 44,5</t>
+          <t>31,99; 45,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,36; 55,0</t>
+          <t>41,95; 55,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 17,57</t>
+          <t>10,72; 17,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,78; 63,83</t>
+          <t>53,42; 63,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,67; 38,15</t>
+          <t>28,7; 37,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,34; 46,62</t>
+          <t>36,4; 46,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 14,8</t>
+          <t>9,84; 14,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,22; 44,05</t>
+          <t>32,21; 43,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 19,16</t>
+          <t>10,47; 19,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,54; 40,57</t>
+          <t>29,05; 40,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,28; 46,19</t>
+          <t>35,27; 46,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,69; 50,69</t>
+          <t>38,91; 50,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 24,37</t>
+          <t>14,48; 25,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,05; 47,53</t>
+          <t>35,73; 47,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,91; 47,03</t>
+          <t>37,16; 46,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,49</t>
+          <t>37,0; 45,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,98</t>
+          <t>13,83; 20,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,94; 42,41</t>
+          <t>34,12; 42,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,49; 44,87</t>
+          <t>37,86; 45,41</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,08</t>
+          <t>40,88; 49,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,73; 24,27</t>
+          <t>17,54; 24,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,86; 43,78</t>
+          <t>36,03; 43,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,2</t>
+          <t>24,87; 32,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,08; 49,95</t>
+          <t>42,27; 50,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,53; 29,52</t>
+          <t>22,56; 29,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,48; 50,03</t>
+          <t>42,72; 50,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 42,09</t>
+          <t>22,67; 42,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,85; 48,35</t>
+          <t>42,64; 48,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,64; 25,54</t>
+          <t>20,99; 25,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,73; 46,45</t>
+          <t>40,69; 46,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,45; 36,21</t>
+          <t>23,88; 36,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,56; 49,03</t>
+          <t>41,92; 49,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,12; 27,59</t>
+          <t>21,47; 27,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,97; 41,51</t>
+          <t>34,84; 42,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,11; 32,83</t>
+          <t>23,17; 33,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,7; 55,5</t>
+          <t>47,84; 55,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,19; 40,12</t>
+          <t>33,29; 39,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,91; 52,27</t>
+          <t>44,82; 52,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,66; 39,07</t>
+          <t>32,27; 38,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,91; 51,05</t>
+          <t>45,79; 50,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,17; 33,14</t>
+          <t>28,38; 33,15</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>41,04; 46,23</t>
+          <t>41,15; 46,18</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 34,96</t>
+          <t>28,59; 34,98</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,35; 42,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,01; 23,9</t>
+          <t>21,06; 24,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,19; 35,62</t>
+          <t>32,12; 35,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,61; 34,53</t>
+          <t>30,34; 34,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,28; 47,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,27; 32,43</t>
+          <t>29,39; 32,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,15; 44,52</t>
+          <t>40,95; 44,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,53; 41,15</t>
+          <t>35,19; 40,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,39; 44,89</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>25,74; 27,83</t>
+          <t>25,72; 27,79</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>37,31; 39,61</t>
+          <t>37,13; 39,51</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,95; 37,29</t>
+          <t>34,02; 37,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,31; 41,96</t>
+          <t>30,47; 42,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 37,73</t>
+          <t>27,14; 37,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,38; 40,13</t>
+          <t>27,79; 39,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,02; 48,4</t>
+          <t>35,4; 46,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,92; 39,34</t>
+          <t>30,56; 38,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,37; 40,7</t>
+          <t>32,63; 41,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 37,03</t>
+          <t>28,42; 37,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,09; 25,59</t>
+          <t>17,78; 25,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,23; 33,72</t>
+          <t>25,38; 33,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,06; 47,4</t>
+          <t>38,88; 47,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,71; 39,37</t>
+          <t>30,45; 39,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,47; 41,24</t>
+          <t>33,09; 41,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,12; 41,19</t>
+          <t>35,0; 41,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 31,5</t>
+          <t>25,52; 31,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 36,64</t>
+          <t>30,24; 36,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 47,24</t>
+          <t>36,82; 47,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 23,37</t>
+          <t>14,63; 23,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,89; 37,15</t>
+          <t>26,66; 36,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,86; 45,28</t>
+          <t>35,24; 46,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 23,56</t>
+          <t>15,1; 23,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 42,79</t>
+          <t>31,27; 42,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,36; 45,09</t>
+          <t>37,41; 45,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,22; 22,35</t>
+          <t>16,31; 22,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,86; 38,39</t>
+          <t>31,12; 38,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,57; 44,02</t>
+          <t>33,77; 44,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,79</t>
+          <t>22,75; 29,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,18</t>
+          <t>17,4; 26,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,07; 46,87</t>
+          <t>37,09; 47,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 38,75</t>
+          <t>30,53; 38,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,67; 40,0</t>
+          <t>30,25; 40,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,68; 43,67</t>
+          <t>36,82; 44,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,12; 33,1</t>
+          <t>27,85; 33,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,85</t>
+          <t>25,32; 31,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,31; 56,89</t>
+          <t>42,9; 56,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,77; 34,66</t>
+          <t>21,93; 34,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,49; 41,23</t>
+          <t>28,37; 41,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>61,12; 74,39</t>
+          <t>61,7; 74,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,99; 45,36</t>
+          <t>30,62; 44,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,95; 55,39</t>
+          <t>41,98; 55,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,42; 63,81</t>
+          <t>53,96; 63,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,7; 37,78</t>
+          <t>28,94; 38,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,4; 46,23</t>
+          <t>36,79; 46,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,21; 43,72</t>
+          <t>32,31; 44,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 19,31</t>
+          <t>10,02; 18,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,05; 40,0</t>
+          <t>28,66; 40,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,91; 50,75</t>
+          <t>39,05; 51,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,48; 25,06</t>
+          <t>14,7; 24,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,73; 47,41</t>
+          <t>35,7; 47,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,0; 45,7</t>
+          <t>37,39; 46,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 20,43</t>
+          <t>13,8; 20,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,12; 42,01</t>
+          <t>34,24; 42,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,88; 49,25</t>
+          <t>41,18; 49,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,54; 24,11</t>
+          <t>17,62; 24,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,03; 43,94</t>
+          <t>35,77; 44,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,27; 50,32</t>
+          <t>42,16; 50,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,56; 29,26</t>
+          <t>22,23; 29,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,72; 50,66</t>
+          <t>42,92; 50,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,64; 48,37</t>
+          <t>42,65; 48,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,99; 25,87</t>
+          <t>20,92; 25,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,69; 46,37</t>
+          <t>40,65; 46,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,92; 49,02</t>
+          <t>41,37; 49,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,47; 27,63</t>
+          <t>21,35; 27,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,05</t>
+          <t>35,05; 42,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,84; 55,31</t>
+          <t>47,99; 55,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,29; 39,81</t>
+          <t>33,27; 40,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,82; 52,05</t>
+          <t>45,67; 52,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,79; 50,99</t>
+          <t>45,73; 50,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,15</t>
+          <t>28,44; 33,19</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>41,15; 46,18</t>
+          <t>41,12; 46,18</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,79</t>
+          <t>39,34; 42,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,06; 24,18</t>
+          <t>21,01; 23,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,12; 35,42</t>
+          <t>32,18; 35,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,28; 47,71</t>
+          <t>44,43; 47,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,39; 32,61</t>
+          <t>29,33; 32,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,95; 44,57</t>
+          <t>40,86; 44,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,39; 44,89</t>
+          <t>42,4; 44,88</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,79</t>
+          <t>25,8; 27,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>37,13; 39,51</t>
+          <t>37,19; 39,58</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 42,0</t>
+          <t>30,2; 41,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,14; 37,99</t>
+          <t>26,42; 38,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,99; 50,29</t>
+          <t>37,9; 49,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,79; 39,53</t>
+          <t>27,61; 39,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,4; 46,76</t>
+          <t>35,12; 47,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,37; 55,04</t>
+          <t>45,21; 54,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 38,74</t>
+          <t>30,94; 39,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,63; 41,0</t>
+          <t>32,52; 40,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,96</t>
+          <t>43,21; 50,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,42; 37,21</t>
+          <t>28,48; 37,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,8</t>
+          <t>17,9; 25,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,38; 33,65</t>
+          <t>25,68; 34,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,17; 43,45</t>
+          <t>33,44; 43,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,88; 47,55</t>
+          <t>38,55; 47,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,45; 39,39</t>
+          <t>30,72; 39,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,09; 41,18</t>
+          <t>32,87; 41,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,17; 56,87</t>
+          <t>48,94; 56,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,0; 41,05</t>
+          <t>35,15; 41,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,52; 31,31</t>
+          <t>26,01; 31,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,24; 36,13</t>
+          <t>30,48; 36,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,6; 49,16</t>
+          <t>42,68; 49,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,82; 47,69</t>
+          <t>35,89; 47,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 23,43</t>
+          <t>14,97; 23,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,66; 36,77</t>
+          <t>27,11; 37,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,47; 42,06</t>
+          <t>31,96; 42,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,24; 46,33</t>
+          <t>35,08; 45,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,1; 23,59</t>
+          <t>15,26; 23,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,27; 42,5</t>
+          <t>31,83; 42,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,35; 44,38</t>
+          <t>35,37; 44,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,41; 45,28</t>
+          <t>37,22; 44,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,31; 22,2</t>
+          <t>15,92; 22,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,12; 38,38</t>
+          <t>30,82; 38,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,15; 41,46</t>
+          <t>35,13; 41,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,77; 44,65</t>
+          <t>33,69; 43,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,75; 29,77</t>
+          <t>22,8; 29,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 26,38</t>
+          <t>17,46; 26,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 41,14</t>
+          <t>26,93; 40,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,09; 47,02</t>
+          <t>36,77; 46,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 38,02</t>
+          <t>31,19; 38,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 40,57</t>
+          <t>29,69; 39,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 45,28</t>
+          <t>33,26; 45,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,82; 44,04</t>
+          <t>36,51; 43,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,85; 33,11</t>
+          <t>28,05; 33,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 31,86</t>
+          <t>24,94; 31,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,42; 40,96</t>
+          <t>32,48; 41,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,9; 56,45</t>
+          <t>42,12; 56,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 34,54</t>
+          <t>22,02; 35,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,37; 41,35</t>
+          <t>28,78; 41,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,76</t>
+          <t>6,93; 14,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>61,7; 74,18</t>
+          <t>60,89; 75,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,62; 44,54</t>
+          <t>31,62; 44,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,98; 55,01</t>
+          <t>41,36; 55,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 17,3</t>
+          <t>10,81; 17,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,96; 63,85</t>
+          <t>53,78; 63,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,94; 38,76</t>
+          <t>28,67; 38,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,79; 46,17</t>
+          <t>37,34; 46,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,7</t>
+          <t>10,06; 14,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,31; 44,46</t>
+          <t>32,22; 44,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,62</t>
+          <t>10,37; 19,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,66; 40,5</t>
+          <t>29,54; 40,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,27; 46,25</t>
+          <t>35,28; 46,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,05; 51,13</t>
+          <t>38,69; 50,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,7; 24,47</t>
+          <t>14,9; 24,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,7; 47,62</t>
+          <t>36,05; 47,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,16; 46,8</t>
+          <t>36,91; 47,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,06</t>
+          <t>37,04; 45,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,8; 20,19</t>
+          <t>13,7; 19,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,24; 42,12</t>
+          <t>33,94; 42,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,86; 45,41</t>
+          <t>37,49; 44,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,18; 49,36</t>
+          <t>40,84; 49,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,62; 24,18</t>
+          <t>17,73; 24,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,77; 44,29</t>
+          <t>35,86; 43,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 32,69</t>
+          <t>24,23; 32,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,16; 50,32</t>
+          <t>42,08; 49,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,23; 29,23</t>
+          <t>22,53; 29,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,92; 50,55</t>
+          <t>42,48; 50,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,67; 42,16</t>
+          <t>21,48; 42,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,65; 48,3</t>
+          <t>42,85; 48,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,92; 25,71</t>
+          <t>20,64; 25,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,65; 46,26</t>
+          <t>40,73; 46,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,88; 36,07</t>
+          <t>23,45; 36,21</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,37; 49,12</t>
+          <t>41,56; 49,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,35; 27,69</t>
+          <t>21,12; 27,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,05; 42,24</t>
+          <t>34,97; 41,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,17; 33,16</t>
+          <t>23,11; 32,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,99; 55,1</t>
+          <t>47,7; 55,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,27; 40,1</t>
+          <t>33,19; 40,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,67; 52,57</t>
+          <t>44,91; 52,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,27; 38,97</t>
+          <t>32,66; 39,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,73; 50,94</t>
+          <t>45,91; 51,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,44; 33,19</t>
+          <t>28,17; 33,14</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>41,12; 46,18</t>
+          <t>41,04; 46,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,59; 34,98</t>
+          <t>29,01; 34,96</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>39,34; 42,7</t>
+          <t>39,18; 42,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1854,52 +1854,52 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,18; 35,4</t>
+          <t>32,19; 35,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,34; 34,39</t>
+          <t>30,61; 34,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,43; 47,86</t>
+          <t>44,36; 47,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,33; 32,53</t>
+          <t>29,27; 32,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,86; 44,49</t>
+          <t>41,15; 44,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,19; 40,84</t>
+          <t>35,53; 41,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,4; 44,88</t>
+          <t>42,42; 44,95</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>25,8; 27,93</t>
+          <t>25,74; 27,83</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>37,19; 39,58</t>
+          <t>37,31; 39,61</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,02; 37,35</t>
+          <t>33,95; 37,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>46,12%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,16; 30,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,9; 49,52</t>
+          <t>36,02; 48,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,76; 42,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,21; 54,79</t>
+          <t>45,07; 55,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,22; 34,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,84</t>
+          <t>41,83; 50,28</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>45,31%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 43,86</t>
+          <t>32,64; 43,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,94; 56,66</t>
+          <t>48,86; 56,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 49,39</t>
+          <t>41,97; 49,05</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>38,19%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,96; 42,64</t>
+          <t>31,69; 42,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,37; 44,14</t>
+          <t>35,27; 44,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,13; 41,74</t>
+          <t>34,89; 41,51</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 29,9</t>
+          <t>22,91; 32,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 40,2</t>
+          <t>27,65; 41,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,19; 38,26</t>
+          <t>28,27; 38,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,26; 45,07</t>
+          <t>23,13; 49,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,05; 33,02</t>
+          <t>27,45; 34,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,48; 41,5</t>
+          <t>26,7; 44,24</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,18</t>
+          <t>6,87; 14,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 17,57</t>
+          <t>10,73; 16,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 14,8</t>
+          <t>10,01; 14,61</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>41,38%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,28; 46,19</t>
+          <t>35,32; 46,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,91; 47,03</t>
+          <t>36,82; 47,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,49; 44,87</t>
+          <t>37,62; 44,98</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>29,76%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,2</t>
+          <t>23,87; 32,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 42,09</t>
+          <t>15,04; 41,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,45; 36,21</t>
+          <t>17,78; 35,71</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,11; 32,83</t>
+          <t>10,69; 32,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,66; 39,07</t>
+          <t>32,66; 38,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 34,96</t>
+          <t>17,4; 34,33</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>34,53%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,61; 34,53</t>
+          <t>24,52; 33,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,53; 41,15</t>
+          <t>31,84; 41,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,95; 37,29</t>
+          <t>30,02; 36,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 41,78</t>
+          <t>30,07; 41,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 30,12</t>
+          <t>19,86; 29,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 38,35</t>
+          <t>25,95; 38,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,02; 48,8</t>
+          <t>36,17; 49,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,61; 39,97</t>
+          <t>27,38; 39,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 42,67</t>
+          <t>30,38; 42,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 47,17</t>
+          <t>35,54; 47,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,07; 55,1</t>
+          <t>45,15; 55,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,94; 39,18</t>
+          <t>30,81; 39,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 34,24</t>
+          <t>26,58; 34,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,52; 40,62</t>
+          <t>32,59; 40,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,83; 50,28</t>
+          <t>41,79; 50,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 37,08</t>
+          <t>28,13; 37,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 25,27</t>
+          <t>17,85; 25,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 34,02</t>
+          <t>25,75; 33,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,64; 43,28</t>
+          <t>32,78; 44,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,55; 47,68</t>
+          <t>38,29; 47,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 39,42</t>
+          <t>30,81; 39,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 41,65</t>
+          <t>32,72; 41,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,86; 56,56</t>
+          <t>48,28; 56,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,15; 41,11</t>
+          <t>34,97; 41,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 31,54</t>
+          <t>25,63; 31,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,48; 36,48</t>
+          <t>30,19; 36,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>41,97; 49,05</t>
+          <t>41,93; 48,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,89; 47,27</t>
+          <t>36,61; 47,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 23,09</t>
+          <t>14,59; 23,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 37,18</t>
+          <t>27,2; 36,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,69; 42,47</t>
+          <t>31,66; 42,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,08; 45,25</t>
+          <t>35,41; 46,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 23,87</t>
+          <t>15,51; 24,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,83; 42,13</t>
+          <t>31,67; 42,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,27; 44,02</t>
+          <t>35,41; 44,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,22; 44,88</t>
+          <t>37,25; 44,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,32</t>
+          <t>16,07; 22,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,28</t>
+          <t>30,92; 38,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,89; 41,51</t>
+          <t>34,81; 41,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 43,78</t>
+          <t>33,77; 43,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,91; 32,83</t>
+          <t>22,71; 32,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,12</t>
+          <t>17,82; 26,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,65; 41,86</t>
+          <t>28,23; 41,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,77; 46,92</t>
+          <t>36,86; 46,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 38,2</t>
+          <t>28,72; 38,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 39,8</t>
+          <t>30,07; 40,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,13; 49,26</t>
+          <t>23,65; 49,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 43,87</t>
+          <t>36,94; 43,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,45; 34,35</t>
+          <t>27,18; 34,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,92</t>
+          <t>24,94; 32,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 44,24</t>
+          <t>27,41; 44,67</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,12; 56,94</t>
+          <t>43,13; 56,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,02; 35,08</t>
+          <t>22,11; 34,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,78; 41,68</t>
+          <t>28,74; 40,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,08</t>
+          <t>6,94; 13,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,89; 75,21</t>
+          <t>60,33; 74,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,62; 44,5</t>
+          <t>31,04; 44,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,36; 55,0</t>
+          <t>41,89; 54,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,94</t>
+          <t>10,47; 17,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,78; 63,83</t>
+          <t>53,98; 64,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,67; 38,15</t>
+          <t>28,7; 37,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,34; 46,62</t>
+          <t>37,37; 46,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,61</t>
+          <t>9,62; 14,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,22; 44,05</t>
+          <t>31,83; 43,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 19,16</t>
+          <t>10,3; 18,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,54; 40,57</t>
+          <t>28,75; 40,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 46,35</t>
+          <t>35,0; 45,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,69; 50,69</t>
+          <t>39,3; 50,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 24,37</t>
+          <t>14,87; 24,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,05; 47,53</t>
+          <t>35,89; 47,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,82; 47,03</t>
+          <t>37,8; 47,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,49</t>
+          <t>37,38; 45,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,98</t>
+          <t>13,64; 20,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,94; 42,41</t>
+          <t>33,99; 42,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,62; 44,98</t>
+          <t>38,01; 45,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,08</t>
+          <t>40,48; 48,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,73; 24,27</t>
+          <t>17,62; 24,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,86; 43,78</t>
+          <t>35,67; 43,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,87; 32,08</t>
+          <t>24,21; 32,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,08; 49,95</t>
+          <t>42,56; 50,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,53; 29,52</t>
+          <t>22,48; 29,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,48; 50,03</t>
+          <t>42,77; 49,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,04; 41,97</t>
+          <t>15,02; 42,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,85; 48,35</t>
+          <t>42,7; 48,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,64; 25,54</t>
+          <t>20,76; 25,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,73; 46,45</t>
+          <t>40,59; 46,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 35,71</t>
+          <t>18,57; 35,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,56; 49,03</t>
+          <t>41,68; 48,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,12; 27,59</t>
+          <t>20,95; 27,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,97; 41,51</t>
+          <t>34,92; 41,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,69; 32,12</t>
+          <t>10,47; 32,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,7; 55,5</t>
+          <t>47,88; 55,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,19; 40,12</t>
+          <t>33,13; 40,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,91; 52,27</t>
+          <t>45,23; 52,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,66; 38,89</t>
+          <t>32,72; 38,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,91; 51,05</t>
+          <t>45,98; 51,22</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,17; 33,14</t>
+          <t>28,16; 33,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>41,04; 46,23</t>
+          <t>41,29; 46,49</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,4; 34,33</t>
+          <t>16,84; 34,03</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,54; 42,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,01; 23,9</t>
+          <t>21,05; 24,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,19; 35,62</t>
+          <t>32,17; 35,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,86</t>
+          <t>23,33; 33,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,33; 47,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,27; 32,43</t>
+          <t>29,29; 32,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,15; 44,52</t>
+          <t>40,96; 44,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,39</t>
+          <t>30,91; 41,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,41; 44,94</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>25,74; 27,83</t>
+          <t>25,73; 27,8</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>37,31; 39,61</t>
+          <t>37,04; 39,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,02; 36,85</t>
+          <t>30,08; 37,09</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no realiza actividad física en su tiempo libre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96858</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71927</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>94404</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>131640</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>87314</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>103491</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>119044</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>145597</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>184172</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>175418</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>213449</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>277237</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>80858; 110729</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58545; 87848</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76225; 111928</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>112646; 152665</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>71088; 102769</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>87273; 121306</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>102618; 136989</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>130768; 160096</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>162846; 207892</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>154706; 199927</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>189803; 237513</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>251163; 303592</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>160378</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>108444</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>147949</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>196051</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>216445</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>184283</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>192961</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>271267</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>376822</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>292727</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>340910</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>467318</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>138201; 182487</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>90246; 128116</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>129394; 170678</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>169433; 228525</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>192163; 237617</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>161368; 206989</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>171166; 215553</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>248328; 291338</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>347374; 411898</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>263854; 325599</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>309654; 371474</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>432425; 503308</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132903</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>60551</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>101205</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>116156</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>135584</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66035</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>124361</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>137850</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>268487</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>126586</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>225566</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>254006</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>116342; 152197</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47273; 76102</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86664; 117348</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100059; 133705</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>118778; 155155</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52902; 81857</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>106494; 142348</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>123633; 154224</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>243320; 293710</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>106860; 147152</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>202458; 250353</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>231570; 275947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>138003</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103142</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80231</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>108087</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>154199</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>130044</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>135119</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>178372</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>292202</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>233185</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>215350</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>286458</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>120614; 155590</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>84750; 121600</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65935; 98205</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88056; 130870</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>135866; 171415</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>111707; 148948</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>116475; 155524</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>112523; 237752</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>268075; 317902</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>207141; 259753</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>188871; 242299</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>215919; 351842</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>96508</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>59766</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>73435</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17608</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>135868</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83315</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>105639</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28476</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>232377</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>143080</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>179074</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>46084</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83626; 109710</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>47012; 74405</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>60701; 86157</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12407; 24936</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>120510; 148119</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68151; 98557</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>91563; 118959</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21774; 35872</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>212498; 253594</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>124048; 163724</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>160635; 198800</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37209; 55482</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>100976</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>38935</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>90391</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>108991</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>123568</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>53931</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>113751</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>108977</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>224544</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>92866</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>204142</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>217968</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>84900; 116631</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28210; 51127</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>75645; 107439</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>94377; 123657</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>107758; 139732</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>41654; 68269</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>98020; 130391</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>97178; 120997</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>202246; 248223</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>75570; 112058</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>182274; 228824</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>200192; 239257</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>272160</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>136982</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>262198</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>174486</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>289423</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>177906</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>321476</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>261424</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>561583</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>314889</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>583673</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>435910</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>246096; 296552</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>116647; 159486</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>234166; 286765</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>149957; 200488</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>266498; 316393</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>155748; 202006</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>295678; 345468</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>126948; 355535</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>526955; 597002</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>281225; 347858</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>547056; 621039</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>271954; 520228</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>329340</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>189981</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>298132</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>213083</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>388662</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>301824</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>402016</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>255049</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>718003</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>491805</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>700148</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>468132</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>303354; 354825</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>163252; 216292</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>271920; 324062</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>96993; 298523</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>360611; 418334</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>272960; 329826</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>373654; 431406</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>233616; 277002</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>680956; 758612</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>451464; 529149</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>662538; 746043</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>276330; 558288</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1327127</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>769729</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1147944</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1066102</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1531062</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1100829</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1514368</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1387012</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2858190</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1870558</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2662312</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2453114</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1277681; 1387470</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>720971; 825293</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1091965; 1204174</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>804984; 1168999</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1471330; 1592159</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1042002; 1157285</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1451762; 1571420</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1129133; 1500600</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2777688; 2943935</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1796791; 1940903</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2570329; 2735966</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2136716; 2634551</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>